--- a/ucitajStudente.xlsx
+++ b/ucitajStudente.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Idea Projects\diplomski\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="23895" windowHeight="9975"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>BrojIndeksa</t>
   </si>
@@ -27,9 +32,6 @@
     <t>Prezime</t>
   </si>
   <si>
-    <t>Student</t>
-  </si>
-  <si>
     <t>157/06</t>
   </si>
   <si>
@@ -40,13 +42,130 @@
   </si>
   <si>
     <t>123/07</t>
+  </si>
+  <si>
+    <t>Petar</t>
+  </si>
+  <si>
+    <t>Petrovic</t>
+  </si>
+  <si>
+    <t>133/07</t>
+  </si>
+  <si>
+    <t>Markovic</t>
+  </si>
+  <si>
+    <t>Marko</t>
+  </si>
+  <si>
+    <t>122/04</t>
+  </si>
+  <si>
+    <t>Pavle</t>
+  </si>
+  <si>
+    <t>Pavlovic</t>
+  </si>
+  <si>
+    <t>144/07</t>
+  </si>
+  <si>
+    <t>Kosta</t>
+  </si>
+  <si>
+    <t>Kostic</t>
+  </si>
+  <si>
+    <t>155/09</t>
+  </si>
+  <si>
+    <t>Laza</t>
+  </si>
+  <si>
+    <t>Lazic</t>
+  </si>
+  <si>
+    <t>117/08</t>
+  </si>
+  <si>
+    <t>Ilija</t>
+  </si>
+  <si>
+    <t>15/08</t>
+  </si>
+  <si>
+    <t>Srdjan</t>
+  </si>
+  <si>
+    <t>Popovic</t>
+  </si>
+  <si>
+    <t>22/08</t>
+  </si>
+  <si>
+    <t>Milos</t>
+  </si>
+  <si>
+    <t>Milosevic</t>
+  </si>
+  <si>
+    <t>23/08</t>
+  </si>
+  <si>
+    <t>Marija</t>
+  </si>
+  <si>
+    <t>Mitrovic</t>
+  </si>
+  <si>
+    <t>24/08</t>
+  </si>
+  <si>
+    <t>Jelena</t>
+  </si>
+  <si>
+    <t>25/08</t>
+  </si>
+  <si>
+    <t>Slobodan</t>
+  </si>
+  <si>
+    <t>Mitic</t>
+  </si>
+  <si>
+    <t>26/08</t>
+  </si>
+  <si>
+    <t>Paja</t>
+  </si>
+  <si>
+    <t>Kovac</t>
+  </si>
+  <si>
+    <t>27/08</t>
+  </si>
+  <si>
+    <t>28/08</t>
+  </si>
+  <si>
+    <t>Miki</t>
+  </si>
+  <si>
+    <t>212/08</t>
+  </si>
+  <si>
+    <t>Sasa</t>
+  </si>
+  <si>
+    <t>Stancic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +203,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -130,7 +257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -162,9 +289,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -196,6 +324,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -371,16 +500,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,26 +520,180 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -419,24 +702,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
